--- a/data/Resource Interaction Table.xlsx
+++ b/data/Resource Interaction Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brooksantangelo/Documents/ReviewPaper/db_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE01060D-B3A1-CF42-B03F-F1143BAFC1D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97EFA82-D636-7746-95A3-9A064B05315D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30900" yWindow="1440" windowWidth="20740" windowHeight="18240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-32800" yWindow="1540" windowWidth="20740" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="63">
   <si>
     <t>source</t>
   </si>
@@ -208,6 +208,9 @@
   </si>
   <si>
     <t>UMLS</t>
+  </si>
+  <si>
+    <t>KEGG_Pathways</t>
   </si>
 </sst>
 </file>
@@ -478,10 +481,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1524,6 +1527,17 @@
         <v>16</v>
       </c>
     </row>
+    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -1535,10 +1549,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1899,6 +1913,14 @@
         <v>50</v>
       </c>
     </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1906,10 +1928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C62C224-E054-A841-B649-DAD5203F257C}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A8" zoomScale="110" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2360,13 +2382,13 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>4</v>
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -2377,7 +2399,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.15">
@@ -2385,10 +2407,10 @@
         <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.15">
@@ -2399,7 +2421,7 @@
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.15">
@@ -2410,7 +2432,7 @@
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.15">
@@ -2421,7 +2443,7 @@
         <v>5</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.15">
@@ -2432,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.15">
@@ -2443,7 +2465,7 @@
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.15">
@@ -2451,10 +2473,10 @@
         <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.15">
@@ -2465,7 +2487,7 @@
         <v>12</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.15">
@@ -2476,18 +2498,18 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -2498,7 +2520,7 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.15">
@@ -2506,21 +2528,21 @@
         <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.15">
@@ -2531,7 +2553,7 @@
         <v>9</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.15">
@@ -2542,7 +2564,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -2553,29 +2575,29 @@
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C59" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A60" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A60" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.15">
@@ -2586,7 +2608,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.15">
@@ -2594,10 +2616,10 @@
         <v>30</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -2605,10 +2627,10 @@
         <v>30</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -2616,21 +2638,21 @@
         <v>30</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
@@ -2638,21 +2660,21 @@
         <v>33</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
@@ -2660,21 +2682,21 @@
         <v>34</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
@@ -2682,10 +2704,10 @@
         <v>37</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
@@ -2696,7 +2718,7 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -2707,7 +2729,7 @@
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -2715,10 +2737,10 @@
         <v>37</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -2729,7 +2751,7 @@
         <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -2740,18 +2762,18 @@
         <v>9</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -2759,10 +2781,10 @@
         <v>38</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -2773,7 +2795,7 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -2784,7 +2806,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -2795,7 +2817,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -2806,7 +2828,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -2814,10 +2836,10 @@
         <v>38</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -2828,7 +2850,7 @@
         <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -2839,18 +2861,18 @@
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -2858,10 +2880,10 @@
         <v>32</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -2872,23 +2894,23 @@
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>28</v>
@@ -2899,7 +2921,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>28</v>
@@ -2910,13 +2932,13 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -2927,7 +2949,7 @@
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -2935,10 +2957,10 @@
         <v>52</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -2949,6 +2971,17 @@
         <v>9</v>
       </c>
       <c r="C94" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/Resource Interaction Table.xlsx
+++ b/data/Resource Interaction Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brooksantangelo/Documents/ReviewPaper/db_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97EFA82-D636-7746-95A3-9A064B05315D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED0741-6E25-0143-AD6C-785B9F7778BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32800" yWindow="1540" windowWidth="20740" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="760" windowWidth="20740" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="62">
   <si>
     <t>source</t>
   </si>
@@ -165,9 +165,6 @@
     <t>MeSH_Disease</t>
   </si>
   <si>
-    <t>SNOMED_Disease</t>
-  </si>
-  <si>
     <t>EFO</t>
   </si>
   <si>
@@ -204,13 +201,13 @@
     <t>MeSH</t>
   </si>
   <si>
-    <t>SNOMED</t>
-  </si>
-  <si>
     <t>UMLS</t>
   </si>
   <si>
-    <t>KEGG_Pathways</t>
+    <t>SNOMED CT</t>
+  </si>
+  <si>
+    <t>KEGG Pathways</t>
   </si>
 </sst>
 </file>
@@ -483,8 +480,8 @@
   </sheetPr>
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -509,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -520,7 +517,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -531,7 +528,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -542,7 +539,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -553,7 +550,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -564,7 +561,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -575,10 +572,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -586,10 +583,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -597,7 +594,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
@@ -608,7 +605,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -619,7 +616,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -630,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -641,7 +638,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -652,7 +649,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -663,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
@@ -674,7 +671,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -685,7 +682,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -696,7 +693,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -707,7 +704,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -718,7 +715,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -729,7 +726,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -740,7 +737,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
@@ -751,7 +748,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>19</v>
@@ -762,7 +759,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -773,7 +770,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>25</v>
@@ -784,7 +781,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -795,7 +792,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>23</v>
@@ -806,7 +803,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
@@ -817,7 +814,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -828,7 +825,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>23</v>
@@ -839,7 +836,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -850,7 +847,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
@@ -861,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>21</v>
@@ -872,7 +869,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -883,7 +880,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -894,7 +891,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
@@ -905,7 +902,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -916,7 +913,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>16</v>
@@ -927,7 +924,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>46</v>
@@ -938,7 +935,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -949,7 +946,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
@@ -960,7 +957,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
@@ -971,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
@@ -982,7 +979,7 @@
         <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
@@ -993,7 +990,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>22</v>
@@ -1004,7 +1001,7 @@
         <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>7</v>
@@ -1015,7 +1012,7 @@
         <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -1026,7 +1023,7 @@
         <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>13</v>
@@ -1037,10 +1034,10 @@
         <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1048,7 +1045,7 @@
         <v>27</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>36</v>
@@ -1059,7 +1056,7 @@
         <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
@@ -1070,7 +1067,7 @@
         <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
@@ -1081,7 +1078,7 @@
         <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
@@ -1092,7 +1089,7 @@
         <v>30</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>26</v>
@@ -1103,10 +1100,10 @@
         <v>30</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1114,10 +1111,10 @@
         <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1125,7 +1122,7 @@
         <v>30</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>23</v>
@@ -1136,7 +1133,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>16</v>
@@ -1147,7 +1144,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>22</v>
@@ -1158,7 +1155,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>31</v>
@@ -1169,7 +1166,7 @@
         <v>30</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>13</v>
@@ -1180,7 +1177,7 @@
         <v>30</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>6</v>
@@ -1191,7 +1188,7 @@
         <v>30</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>32</v>
@@ -1202,7 +1199,7 @@
         <v>33</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>4</v>
@@ -1213,7 +1210,7 @@
         <v>33</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>10</v>
@@ -1224,7 +1221,7 @@
         <v>34</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>4</v>
@@ -1235,7 +1232,7 @@
         <v>34</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>35</v>
@@ -1246,7 +1243,7 @@
         <v>37</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>4</v>
@@ -1257,7 +1254,7 @@
         <v>37</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>23</v>
@@ -1268,7 +1265,7 @@
         <v>37</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>20</v>
@@ -1279,7 +1276,7 @@
         <v>37</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>38</v>
@@ -1290,7 +1287,7 @@
         <v>37</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>23</v>
@@ -1301,7 +1298,7 @@
         <v>37</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>20</v>
@@ -1312,7 +1309,7 @@
         <v>37</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>38</v>
@@ -1323,7 +1320,7 @@
         <v>38</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>4</v>
@@ -1334,7 +1331,7 @@
         <v>38</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>6</v>
@@ -1345,7 +1342,7 @@
         <v>38</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>20</v>
@@ -1356,7 +1353,7 @@
         <v>38</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>30</v>
@@ -1367,7 +1364,7 @@
         <v>38</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>8</v>
@@ -1378,7 +1375,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>23</v>
@@ -1389,7 +1386,7 @@
         <v>38</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>16</v>
@@ -1400,7 +1397,7 @@
         <v>38</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>26</v>
@@ -1411,7 +1408,7 @@
         <v>38</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>39</v>
@@ -1422,7 +1419,7 @@
         <v>32</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>4</v>
@@ -1433,7 +1430,7 @@
         <v>32</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>26</v>
@@ -1444,7 +1441,7 @@
         <v>32</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>30</v>
@@ -1455,10 +1452,10 @@
         <v>20</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1466,10 +1463,10 @@
         <v>29</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1477,18 +1474,18 @@
         <v>30</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>4</v>
@@ -1496,10 +1493,10 @@
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -1507,10 +1504,10 @@
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>18</v>
@@ -1518,10 +1515,10 @@
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>16</v>
@@ -1532,10 +1529,10 @@
         <v>23</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1552,7 +1549,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1694,7 +1691,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1702,7 +1699,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1710,7 +1707,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1718,7 +1715,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1726,7 +1723,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1750,7 +1747,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1758,7 +1755,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1774,7 +1771,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1782,7 +1779,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1790,7 +1787,7 @@
         <v>33</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1798,7 +1795,7 @@
         <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1814,7 +1811,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1822,12 +1819,12 @@
         <v>37</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>45</v>
@@ -1843,7 +1840,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>45</v>
@@ -1851,15 +1848,15 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>45</v>
@@ -1899,26 +1896,26 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1930,8 +1927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C62C224-E054-A841-B649-DAD5203F257C}">
   <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="110" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="A38" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2025,7 +2022,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2036,7 +2033,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2377,7 +2374,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -2388,7 +2385,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -2564,7 +2561,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -2575,7 +2572,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -2916,7 +2913,7 @@
         <v>28</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
@@ -2927,7 +2924,7 @@
         <v>28</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
@@ -2938,12 +2935,12 @@
         <v>28</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>3</v>
@@ -2954,7 +2951,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>3</v>
@@ -2965,7 +2962,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>9</v>
@@ -2976,7 +2973,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A95" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>9</v>

--- a/data/Resource Interaction Table.xlsx
+++ b/data/Resource Interaction Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brooksantangelo/Documents/ReviewPaper/db_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16ED0741-6E25-0143-AD6C-785B9F7778BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C221410-EB5D-C742-84DA-345E1F6BD84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="760" windowWidth="20740" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="4440" windowWidth="27980" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="62">
   <si>
     <t>source</t>
   </si>
@@ -478,10 +478,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A56" zoomScale="138" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1257,7 +1257,7 @@
         <v>57</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1267,8 +1267,8 @@
       <c r="B71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>20</v>
+      <c r="C71" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1276,21 +1276,21 @@
         <v>37</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1300,19 +1300,19 @@
       <c r="B74" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>20</v>
+      <c r="C74" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1323,7 +1323,7 @@
         <v>56</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1331,10 +1331,10 @@
         <v>38</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1345,7 +1345,7 @@
         <v>57</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1356,7 +1356,7 @@
         <v>57</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1367,7 +1367,7 @@
         <v>57</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1378,7 +1378,7 @@
         <v>57</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1386,10 +1386,10 @@
         <v>38</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1397,21 +1397,21 @@
         <v>38</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1422,7 +1422,7 @@
         <v>56</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1430,26 +1430,26 @@
         <v>32</v>
       </c>
       <c r="B86" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>30</v>
+      <c r="C87" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>56</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>56</v>
@@ -1471,13 +1471,13 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1485,10 +1485,10 @@
         <v>51</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1499,7 +1499,7 @@
         <v>57</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1510,28 +1510,17 @@
         <v>57</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C95" s="2" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1548,8 +1537,8 @@
   </sheetPr>
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1925,10 +1914,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C62C224-E054-A841-B649-DAD5203F257C}">
-  <dimension ref="A1:C95"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="110" workbookViewId="0">
+      <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2712,10 +2701,10 @@
         <v>37</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
@@ -2723,10 +2712,10 @@
         <v>37</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
@@ -2734,10 +2723,10 @@
         <v>37</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
@@ -2748,7 +2737,7 @@
         <v>9</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -2756,21 +2745,21 @@
         <v>37</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
@@ -2778,10 +2767,10 @@
         <v>38</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
@@ -2792,7 +2781,7 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
@@ -2803,7 +2792,7 @@
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
@@ -2814,7 +2803,7 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
@@ -2825,7 +2814,7 @@
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
@@ -2833,10 +2822,10 @@
         <v>38</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
@@ -2847,7 +2836,7 @@
         <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
@@ -2858,18 +2847,18 @@
         <v>9</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
@@ -2877,10 +2866,10 @@
         <v>32</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
@@ -2891,23 +2880,23 @@
         <v>9</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A88" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>30</v>
+      <c r="A88" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>28</v>
@@ -2918,7 +2907,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>28</v>
@@ -2929,13 +2918,13 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
@@ -2946,7 +2935,7 @@
         <v>3</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
@@ -2954,10 +2943,10 @@
         <v>51</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.15">
@@ -2968,17 +2957,6 @@
         <v>9</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A95" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C95" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/Resource Interaction Table.xlsx
+++ b/data/Resource Interaction Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brooksantangelo/Documents/ReviewPaper/db_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C221410-EB5D-C742-84DA-345E1F6BD84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3890F9F-1E54-9D44-BEDF-BA51939F35EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="4440" windowWidth="27980" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1940" yWindow="4440" windowWidth="27980" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="61">
   <si>
     <t>source</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>Reactome</t>
-  </si>
-  <si>
-    <t>ZINC</t>
   </si>
   <si>
     <t>BioModels</t>
@@ -478,10 +475,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" zoomScale="138" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:XFD74"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="138" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -506,7 +503,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -517,7 +514,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -528,7 +525,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -539,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -550,7 +547,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -561,7 +558,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -572,10 +569,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -583,10 +580,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -594,7 +591,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
@@ -605,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -616,7 +613,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -627,7 +624,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -638,7 +635,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -649,7 +646,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -660,7 +657,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
@@ -671,7 +668,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -682,7 +679,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -693,7 +690,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -704,7 +701,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -715,7 +712,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -726,7 +723,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -737,7 +734,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
@@ -748,7 +745,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>19</v>
@@ -759,7 +756,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -770,7 +767,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>25</v>
@@ -781,7 +778,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -792,7 +789,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>23</v>
@@ -803,7 +800,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
@@ -814,7 +811,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -825,7 +822,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>23</v>
@@ -836,7 +833,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -847,7 +844,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
@@ -858,7 +855,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>21</v>
@@ -869,7 +866,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -880,7 +877,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -891,7 +888,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
@@ -902,7 +899,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -913,7 +910,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>16</v>
@@ -924,10 +921,10 @@
         <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -935,7 +932,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -946,7 +943,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
@@ -957,7 +954,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
@@ -968,7 +965,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
@@ -979,7 +976,7 @@
         <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
@@ -990,7 +987,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>22</v>
@@ -1001,7 +998,7 @@
         <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>7</v>
@@ -1012,7 +1009,7 @@
         <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -1023,7 +1020,7 @@
         <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>13</v>
@@ -1034,10 +1031,10 @@
         <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1045,10 +1042,10 @@
         <v>27</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1056,7 +1053,7 @@
         <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
@@ -1067,7 +1064,7 @@
         <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
@@ -1078,7 +1075,7 @@
         <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
@@ -1089,7 +1086,7 @@
         <v>30</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>26</v>
@@ -1100,10 +1097,10 @@
         <v>30</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1111,10 +1108,10 @@
         <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1122,7 +1119,7 @@
         <v>30</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>23</v>
@@ -1133,7 +1130,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>16</v>
@@ -1144,7 +1141,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>22</v>
@@ -1155,10 +1152,10 @@
         <v>30</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1166,10 +1163,10 @@
         <v>30</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1180,29 +1177,29 @@
         <v>56</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1210,87 +1207,87 @@
         <v>33</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A67" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>21</v>
+        <v>56</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>18</v>
+        <v>55</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>16</v>
+        <v>36</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1298,230 +1295,219 @@
         <v>37</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A75" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>30</v>
+        <v>55</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1535,10 +1521,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1549,10 +1535,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1560,7 +1546,7 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1568,7 +1554,7 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1576,7 +1562,7 @@
         <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1584,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1592,7 +1578,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1600,7 +1586,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1608,7 +1594,7 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1616,7 +1602,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1624,7 +1610,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1632,7 +1618,7 @@
         <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1640,7 +1626,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1648,7 +1634,7 @@
         <v>18</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1656,7 +1642,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1664,7 +1650,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1672,7 +1658,7 @@
         <v>19</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1680,7 +1666,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1688,7 +1674,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1696,7 +1682,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1704,7 +1690,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1712,31 +1698,31 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1744,15 +1730,15 @@
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1760,7 +1746,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1768,23 +1754,23 @@
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1792,119 +1778,111 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
+      <c r="A36" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B42" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>49</v>
+      <c r="B43" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1914,9 +1892,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C62C224-E054-A841-B649-DAD5203F257C}">
-  <dimension ref="A1:C94"/>
+  <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="110" workbookViewId="0">
+    <sheetView topLeftCell="A57" zoomScale="110" workbookViewId="0">
       <selection activeCell="E74" sqref="E74"/>
     </sheetView>
   </sheetViews>
@@ -2011,7 +1989,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2022,7 +2000,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2363,7 +2341,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -2374,7 +2352,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -2484,7 +2462,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -2495,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.15">
@@ -2550,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -2561,7 +2539,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -2602,10 +2580,10 @@
         <v>30</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.15">
@@ -2613,10 +2591,10 @@
         <v>30</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.15">
@@ -2624,32 +2602,32 @@
         <v>30</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>6</v>
+        <v>31</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A65" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A66" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.15">
@@ -2657,87 +2635,87 @@
         <v>33</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A68" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A69" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A70" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A71" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A72" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A73" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A74" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -2745,218 +2723,207 @@
         <v>37</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A76" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A77" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A78" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A79" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A80" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A83" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A84" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A85" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A86" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A87" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>30</v>
+      <c r="A87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A88" s="2" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A94" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C94" s="2" t="s">
         <v>16</v>
       </c>
     </row>

--- a/data/Resource Interaction Table.xlsx
+++ b/data/Resource Interaction Table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brooksantangelo/Documents/ReviewPaper/db_review/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3890F9F-1E54-9D44-BEDF-BA51939F35EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01CBC63F-D87C-8148-9F29-1395B855A1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1940" yWindow="4440" windowWidth="27980" windowHeight="18240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="900" yWindow="3460" windowWidth="27980" windowHeight="18240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="60">
   <si>
     <t>source</t>
   </si>
@@ -160,9 +160,6 @@
   </si>
   <si>
     <t>MeSH_Disease</t>
-  </si>
-  <si>
-    <t>EFO</t>
   </si>
   <si>
     <t>PO</t>
@@ -477,7 +474,7 @@
   </sheetPr>
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="138" workbookViewId="0">
+    <sheetView topLeftCell="A56" zoomScale="138" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -503,7 +500,7 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>17</v>
@@ -514,7 +511,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>6</v>
@@ -525,7 +522,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
@@ -536,7 +533,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>16</v>
@@ -547,7 +544,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>18</v>
@@ -558,7 +555,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>19</v>
@@ -569,10 +566,10 @@
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -580,10 +577,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -591,7 +588,7 @@
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>21</v>
@@ -602,7 +599,7 @@
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>6</v>
@@ -613,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -624,7 +621,7 @@
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>22</v>
@@ -635,7 +632,7 @@
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>10</v>
@@ -646,7 +643,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>16</v>
@@ -657,7 +654,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
@@ -668,7 +665,7 @@
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>8</v>
@@ -679,7 +676,7 @@
         <v>24</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>6</v>
@@ -690,7 +687,7 @@
         <v>24</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -701,7 +698,7 @@
         <v>24</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>11</v>
@@ -712,7 +709,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -723,7 +720,7 @@
         <v>24</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>10</v>
@@ -734,7 +731,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>16</v>
@@ -745,7 +742,7 @@
         <v>24</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>19</v>
@@ -756,7 +753,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>20</v>
@@ -767,7 +764,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>25</v>
@@ -778,7 +775,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -789,7 +786,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>23</v>
@@ -800,7 +797,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>6</v>
@@ -811,7 +808,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -822,7 +819,7 @@
         <v>25</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>23</v>
@@ -833,7 +830,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>20</v>
@@ -844,7 +841,7 @@
         <v>23</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>17</v>
@@ -855,7 +852,7 @@
         <v>23</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>21</v>
@@ -866,7 +863,7 @@
         <v>23</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>4</v>
@@ -877,7 +874,7 @@
         <v>23</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>6</v>
@@ -888,7 +885,7 @@
         <v>23</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>7</v>
@@ -899,7 +896,7 @@
         <v>23</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>10</v>
@@ -910,7 +907,7 @@
         <v>23</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>16</v>
@@ -921,7 +918,7 @@
         <v>23</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>45</v>
@@ -932,7 +929,7 @@
         <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>4</v>
@@ -943,7 +940,7 @@
         <v>27</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>17</v>
@@ -954,7 +951,7 @@
         <v>27</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>6</v>
@@ -965,7 +962,7 @@
         <v>27</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
@@ -976,7 +973,7 @@
         <v>27</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>24</v>
@@ -987,7 +984,7 @@
         <v>27</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>22</v>
@@ -998,7 +995,7 @@
         <v>27</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>7</v>
@@ -1009,7 +1006,7 @@
         <v>27</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>8</v>
@@ -1020,7 +1017,7 @@
         <v>27</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>13</v>
@@ -1031,10 +1028,10 @@
         <v>27</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1042,7 +1039,7 @@
         <v>27</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>35</v>
@@ -1053,7 +1050,7 @@
         <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>6</v>
@@ -1064,7 +1061,7 @@
         <v>29</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>8</v>
@@ -1075,7 +1072,7 @@
         <v>29</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>10</v>
@@ -1086,7 +1083,7 @@
         <v>30</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>26</v>
@@ -1097,10 +1094,10 @@
         <v>30</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1108,10 +1105,10 @@
         <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1119,7 +1116,7 @@
         <v>30</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>23</v>
@@ -1130,7 +1127,7 @@
         <v>30</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>16</v>
@@ -1141,7 +1138,7 @@
         <v>30</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>22</v>
@@ -1152,7 +1149,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>13</v>
@@ -1163,7 +1160,7 @@
         <v>30</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>6</v>
@@ -1174,7 +1171,7 @@
         <v>30</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>31</v>
@@ -1185,7 +1182,7 @@
         <v>32</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>4</v>
@@ -1196,7 +1193,7 @@
         <v>32</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>10</v>
@@ -1207,7 +1204,7 @@
         <v>33</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
@@ -1218,7 +1215,7 @@
         <v>33</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>34</v>
@@ -1229,7 +1226,7 @@
         <v>36</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>4</v>
@@ -1240,7 +1237,7 @@
         <v>36</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>21</v>
@@ -1251,7 +1248,7 @@
         <v>36</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>18</v>
@@ -1262,7 +1259,7 @@
         <v>36</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>26</v>
@@ -1273,7 +1270,7 @@
         <v>36</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>16</v>
@@ -1284,10 +1281,10 @@
         <v>36</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
@@ -1295,7 +1292,7 @@
         <v>37</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>4</v>
@@ -1306,7 +1303,7 @@
         <v>37</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>6</v>
@@ -1317,7 +1314,7 @@
         <v>37</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>20</v>
@@ -1328,7 +1325,7 @@
         <v>37</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>30</v>
@@ -1339,7 +1336,7 @@
         <v>37</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>8</v>
@@ -1350,7 +1347,7 @@
         <v>37</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>23</v>
@@ -1361,7 +1358,7 @@
         <v>37</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>16</v>
@@ -1372,7 +1369,7 @@
         <v>37</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>26</v>
@@ -1383,7 +1380,7 @@
         <v>37</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>38</v>
@@ -1394,7 +1391,7 @@
         <v>31</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>4</v>
@@ -1405,7 +1402,7 @@
         <v>31</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>26</v>
@@ -1416,7 +1413,7 @@
         <v>31</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>30</v>
@@ -1427,10 +1424,10 @@
         <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1438,10 +1435,10 @@
         <v>29</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1449,18 +1446,18 @@
         <v>30</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>4</v>
@@ -1468,10 +1465,10 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
@@ -1479,10 +1476,10 @@
     </row>
     <row r="91" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>18</v>
@@ -1490,10 +1487,10 @@
     </row>
     <row r="92" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>16</v>
@@ -1504,10 +1501,10 @@
         <v>23</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1521,10 +1518,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1666,7 +1663,7 @@
         <v>23</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1674,7 +1671,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1682,7 +1679,7 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1690,7 +1687,7 @@
         <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1698,7 +1695,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1722,7 +1719,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1730,7 +1727,7 @@
         <v>30</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1746,7 +1743,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1754,7 +1751,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1762,7 +1759,7 @@
         <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1770,7 +1767,7 @@
         <v>33</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1778,7 +1775,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -1786,12 +1783,12 @@
         <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>44</v>
@@ -1799,7 +1796,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>44</v>
@@ -1807,7 +1804,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>44</v>
@@ -1815,74 +1812,66 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B41" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>48</v>
+      <c r="B42" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1894,8 +1883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C62C224-E054-A841-B649-DAD5203F257C}">
   <dimension ref="A1:C93"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E74" sqref="E74"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1989,7 +1978,7 @@
         <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2000,7 +1989,7 @@
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2341,7 +2330,7 @@
         <v>12</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.15">
@@ -2352,7 +2341,7 @@
         <v>28</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.15">
@@ -2462,7 +2451,7 @@
         <v>12</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.15">
@@ -2528,7 +2517,7 @@
         <v>9</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.15">
@@ -2539,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.15">
@@ -2715,7 +2704,7 @@
         <v>28</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.15">
@@ -2858,7 +2847,7 @@
         <v>28</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.15">
@@ -2869,7 +2858,7 @@
         <v>28</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.15">
@@ -2880,12 +2869,12 @@
         <v>28</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A90" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>3</v>
@@ -2896,7 +2885,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>3</v>
@@ -2907,7 +2896,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>9</v>
@@ -2918,7 +2907,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A93" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>9</v>
